--- a/financial_models/opportunities/KHC_Valuation.xlsx
+++ b/financial_models/opportunities/KHC_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F77B38-12A3-4A42-AD04-C3C471A4A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D37D6AA8-4B3A-4DE6-B907-B7902B1330E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -992,19 +992,18 @@
   </si>
   <si>
     <t>KHC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraft Heinz Co.</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>C0002</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kraft Heinz Co.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>US</t>
@@ -1013,10 +1012,11 @@
     <t>Strongly agree</t>
   </si>
   <si>
-    <t>Tier 1</t>
-  </si>
-  <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2856,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2880,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2889,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2905,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2937,7 +2937,7 @@
         <v>235</v>
       </c>
       <c r="C15" s="173" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2957,7 +2957,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3506,23 +3506,23 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="G45" s="150">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4198,8 +4198,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4252,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>31.25</v>
+        <v>30.1</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>37786.563999999998</v>
+        <v>36396.0184448</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.76296418043048086</v>
+        <v>0.73488709859063928</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.375499059230828</v>
+        <v>10.956880693851135</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4587,20 +4587,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>23.904634846902589</v>
+        <v>7.9638093481196943</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>45.348822289286026</v>
+        <v>26.647284216887606</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>28.1230998198854</v>
+        <v>10.538729319019856</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>39.433758512422635</v>
+        <v>23.171551492945746</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -5663,10 +5663,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5722,16 +5722,16 @@
       <c r="E3" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="84">
-        <f>G14</f>
-        <v>5565.333333333333</v>
+      <c r="F3" s="84" t="str">
+        <f>H14</f>
+        <v/>
       </c>
       <c r="G3" s="84">
         <f>C14</f>
         <v>5393</v>
       </c>
       <c r="H3" s="84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="42"/>
@@ -5755,9 +5755,9 @@
       <c r="E4" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
-        <v>-6.2712659595940412E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J4" s="86"/>
     </row>
@@ -9751,8 +9751,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11623,17 +11623,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7908231084466951E-2</v>
+        <v>9.1266851208956543E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7908231084466951E-2</v>
+        <v>9.1266851208956543E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7908231084466951E-2</v>
+        <v>9.1266851208956543E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11674,17 +11674,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1200000000000002E-2</v>
+        <v>5.3156146179401995E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11744,14 +11744,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>76.11639066729353</v>
+        <v>77.298610774314497</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>76.11639066729353</v>
+        <v>77.298610774314497</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11772,14 +11772,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>37.340837494169854</v>
+        <v>37.689565111106432</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>37.340837494169854</v>
+        <v>37.689565111106432</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11822,21 +11822,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45758.98320235977</v>
+        <v>46469.699902723623</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>37.843298614654216</v>
+        <v>38.4310709478669</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>37.843298614654216</v>
+        <v>38.4310709478669</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>53.019528982637127</v>
+        <v>53.843014603520459</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11863,18 +11863,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-40617</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-38.629430225516131</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-33.590808891753163</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11885,27 +11885,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>45562.98320235977</v>
+        <v>5656.6999027236234</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>32.029023366948138</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>37.681203961115465</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>37.681203961115457</v>
+        <v>2.3390837012874899</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>37.681203961115457</v>
+        <v>4.6781674025749798</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>52.857434329098375</v>
+        <v>20.090111058228544</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11946,27 +11946,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22448.236715879473</v>
+        <v>22657.881721714682</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>15.780246326857041</v>
+        <v>15.927618696239389</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>18.564995678655343</v>
+        <v>18.738374936752223</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>18.564995678655343</v>
+        <v>18.738374936752223</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>18.564995678655343</v>
+        <v>18.738374936752223</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.010082695746892</v>
+        <v>26.252991927662951</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12007,27 +12007,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34005.609959119625</v>
+        <v>11328.940860857341</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>23.904634846902589</v>
+        <v>7.9638093481196943</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>28.123099819885404</v>
+        <v>9.3691874683761114</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>28.1230998198854</v>
+        <v>10.538729319019856</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>28.1230998198854</v>
+        <v>11.7082711696636</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>39.433758512422635</v>
+        <v>23.171551492945746</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/KHC_Valuation.xlsx
+++ b/financial_models/opportunities/KHC_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B6E57C-95B8-46C9-ADE4-52A971689E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A52664-4A24-4450-A670-AD9561B36D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4686,7 +4686,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4805,20 +4805,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.201345211792848</v>
+        <v>9.822111666343222</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>26.217910313484889</v>
+        <v>26.401021940959797</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.530994366815115</v>
+        <v>11.555425489815555</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.798182881291211</v>
+        <v>22.957410383443303</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11969,21 +11969,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>64.67012816361931</v>
+        <v>76.823652932643242</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>64.67012816361931</v>
+        <v>76.823652932643242</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12004,14 +12004,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>33.905221131086378</v>
+        <v>37.549668439296298</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>33.905221131086378</v>
+        <v>37.549668439296298</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12054,21 +12054,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>51415.91647950669</v>
+        <v>46184.168919076983</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>42.52165902103679</v>
+        <v>38.194932958740459</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>42.52165902103679</v>
+        <v>38.194932958740459</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>52.056903196846015</v>
+        <v>53.51217861890197</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12118,23 +12118,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.4534421543831435</v>
+        <v>3.7757250014312627</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7687554757448751</v>
+        <v>4.4420294134485445</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.7687554757448751</v>
+        <v>4.4420294134485445</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.7687554757448751</v>
+        <v>4.4420294134485445</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>18.303999651554101</v>
+        <v>19.759275073610056</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12173,23 +12173,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>18.949248269202553</v>
+        <v>15.86849833125518</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>22.293233257885355</v>
+        <v>18.668821566182565</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>22.293233257885355</v>
+        <v>18.668821566182565</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>22.293233257885355</v>
+        <v>18.668821566182565</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>27.292366111028318</v>
+        <v>26.155545693276551</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12228,23 +12228,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>13.201345211792848</v>
+        <v>9.822111666343222</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>15.530994366815115</v>
+        <v>11.555425489815555</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>15.530994366815115</v>
+        <v>11.555425489815555</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>15.530994366815115</v>
+        <v>11.555425489815555</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>22.798182881291211</v>
+        <v>22.957410383443303</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/KHC_Valuation.xlsx
+++ b/financial_models/opportunities/KHC_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A52664-4A24-4450-A670-AD9561B36D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2FBFC0-2E57-4719-851C-2A5C329E1DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>279</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4370,7 +4371,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4393,6 +4394,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4411,8 +4415,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4448,18 +4452,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>KHC</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4475,7 +4482,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>Kraft Heinz Co.</v>
       </c>
@@ -4504,11 +4511,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>36940.144966400003</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4531,11 +4538,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4603,10 +4610,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4653,7 +4660,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4794,10 +4801,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4805,22 +4812,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.822111666343222</v>
+        <v>12.238821233652445</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>26.401021940959797</v>
+        <v>32.170303342154021</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.555425489815555</v>
-      </c>
-      <c r="G29" s="312">
+        <v>14.398613216061701</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.957410383443303</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>27.974176819264368</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5802,15 +5809,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5838,7 +5846,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11965,7 +11973,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11976,14 +11984,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>76.823652932643242</v>
+        <v>84.506018225907553</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>76.823652932643242</v>
+        <v>84.506018225907553</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12004,14 +12012,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>37.549668439296298</v>
+        <v>41.30463528322592</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>37.549668439296298</v>
+        <v>41.30463528322592</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12054,21 +12062,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>46184.168919076983</v>
+        <v>50802.585810984674</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>38.194932958740459</v>
+        <v>42.014426254614499</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>38.194932958740459</v>
+        <v>42.014426254614499</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>53.51217861890197</v>
+        <v>60.251623078267073</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12118,23 +12126,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7757250014312627</v>
+        <v>7.0222943029241964</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4420294134485445</v>
+        <v>8.261522709322584</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.4420294134485445</v>
+        <v>8.261522709322584</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.4420294134485445</v>
+        <v>8.261522709322584</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>19.759275073610056</v>
+        <v>26.498719532975159</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12173,23 +12181,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>15.86849833125518</v>
+        <v>17.455348164380695</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>18.668821566182565</v>
+        <v>20.535703722800818</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>18.668821566182565</v>
+        <v>20.535703722800818</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>18.668821566182565</v>
+        <v>20.535703722800818</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>26.155545693276551</v>
+        <v>29.449634105553578</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12228,23 +12236,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>9.822111666343222</v>
+        <v>12.238821233652445</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>11.555425489815555</v>
+        <v>14.398613216061701</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>11.555425489815555</v>
+        <v>14.398613216061701</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>11.555425489815555</v>
+        <v>14.398613216061701</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>22.957410383443303</v>
+        <v>27.974176819264368</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/KHC_Valuation.xlsx
+++ b/financial_models/opportunities/KHC_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2FBFC0-2E57-4719-851C-2A5C329E1DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD316C3-C250-4A12-A338-DC5842F93422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4452,21 +4452,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>KHC</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4482,40 +4482,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>Kraft Heinz Co.</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1209170048</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>36940.144966400003</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4538,11 +4538,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4693,7 +4693,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4801,10 +4801,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4812,22 +4812,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.238821233652445</v>
+        <v>14.032718449116496</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>32.170303342154021</v>
+        <v>31.820669685013421</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.398613216061701</v>
-      </c>
-      <c r="G29" s="313">
+        <v>16.509080528372348</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.974176819264368</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>27.670147552185586</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5810,15 +5810,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11191,7 +11191,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11202,11 +11202,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11218,11 +11218,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11977,21 +11977,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>84.506018225907553</v>
+        <v>77.53397018206438</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>84.506018225907553</v>
+        <v>77.53397018206438</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12012,14 +12012,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>41.30463528322592</v>
+        <v>39.249039126051379</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>41.30463528322592</v>
+        <v>39.249039126051379</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12062,21 +12062,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>50802.585810984674</v>
+        <v>53602.869884928878</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>42.014426254614499</v>
+        <v>44.330299095308781</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>42.014426254614499</v>
+        <v>44.330299095308781</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>60.251623078267073</v>
+        <v>59.150294622932506</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12126,23 +12126,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.0222943029241964</v>
+        <v>8.9907862175143372</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.261522709322584</v>
+        <v>10.577395550016867</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.261522709322584</v>
+        <v>10.577395550016867</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.261522709322584</v>
+        <v>10.577395550016867</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>26.498719532975159</v>
+        <v>25.397391077640592</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12181,23 +12181,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>17.455348164380695</v>
+        <v>19.074650680718655</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>20.535703722800818</v>
+        <v>22.440765506727828</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>20.535703722800818</v>
+        <v>22.440765506727828</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>20.535703722800818</v>
+        <v>22.440765506727828</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.449634105553578</v>
+        <v>29.942904026730581</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12236,23 +12236,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>12.238821233652445</v>
+        <v>14.032718449116496</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>14.398613216061701</v>
+        <v>16.509080528372348</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>14.398613216061701</v>
+        <v>16.509080528372348</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>14.398613216061701</v>
+        <v>16.509080528372348</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>27.974176819264368</v>
+        <v>27.670147552185586</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/KHC_Valuation.xlsx
+++ b/financial_models/opportunities/KHC_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C2B9FF-09BE-46A8-AE1E-524DBC0F53A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA23C1DB-CA21-4B08-AAA0-42177607FD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3749,23 +3749,23 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="G45" s="82">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="H45" s="82" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4486,27 +4486,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>KHC</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>30.55</v>
+        <v>30.77</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>289</v>
@@ -4516,7 +4516,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>Kraft Heinz Co.</v>
       </c>
@@ -4545,11 +4545,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>36940.144966400003</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>37206.162376959997</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4572,11 +4572,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.74587378278883809</v>
+        <v>0.75124505061906865</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.120687880304057</v>
+        <v>11.200771393681043</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4835,10 +4835,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4846,22 +4846,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.032718449116496</v>
+        <v>13.974735926427485</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>31.820669685013421</v>
+        <v>31.715997263361217</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.509080528372348</v>
-      </c>
-      <c r="G29" s="313">
+        <v>16.440865795797038</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.670147552185586</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>27.579128055096714</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5844,15 +5844,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11999,17 +11999,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9922494971836076E-2</v>
+        <v>8.92795652060316E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9922494971836076E-2</v>
+        <v>8.92795652060316E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9922494971836076E-2</v>
+        <v>8.92795652060316E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12050,17 +12050,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.2373158756137482E-2</v>
+        <v>5.1998700032499193E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12120,14 +12120,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>77.53397018206438</v>
+        <v>77.351187251602866</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>77.53397018206438</v>
+        <v>77.351187251602866</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12148,14 +12148,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.249039126051379</v>
+        <v>39.193206069280301</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.249039126051379</v>
+        <v>39.193206069280301</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12198,21 +12198,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>53602.869884928878</v>
+        <v>53476.5034726878</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.330299095308781</v>
+        <v>44.225792361578407</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.330299095308781</v>
+        <v>44.225792361578407</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>59.150294622932506</v>
+        <v>59.010850400439395</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12262,23 +12262,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.9907862175143372</v>
+        <v>8.9019554938435181</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.577395550016867</v>
+        <v>10.472888816286492</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>10.577395550016867</v>
+        <v>10.472888816286492</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.577395550016867</v>
+        <v>10.472888816286492</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>25.397391077640592</v>
+        <v>25.25794685514748</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12317,23 +12317,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>19.074650680718655</v>
+        <v>19.04751635901145</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>22.440765506727828</v>
+        <v>22.408842775307587</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>22.440765506727828</v>
+        <v>22.408842775307587</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>22.440765506727828</v>
+        <v>22.408842775307587</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.942904026730581</v>
+        <v>29.900309255045947</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12372,23 +12372,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>14.032718449116496</v>
+        <v>13.974735926427485</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>16.509080528372348</v>
+        <v>16.440865795797038</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>16.509080528372348</v>
+        <v>16.440865795797038</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>16.509080528372348</v>
+        <v>16.440865795797038</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>27.670147552185586</v>
+        <v>27.579128055096714</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/KHC_Valuation.xlsx
+++ b/financial_models/opportunities/KHC_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA23C1DB-CA21-4B08-AAA0-42177607FD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E87408-8277-42CF-BA8B-85A8E6FE91DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3749,23 +3749,23 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="G45" s="82">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="H45" s="82" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4486,27 +4486,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>KHC</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>30.77</v>
+        <v>28.78</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>289</v>
@@ -4516,40 +4516,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>Kraft Heinz Co.</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1209170048</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>37206.162376959997</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>34799.913981440004</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4572,11 +4572,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.75124505061906865</v>
+        <v>0.70265949160925567</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.200771393681043</v>
+        <v>10.476379613589224</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4835,10 +4835,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4846,22 +4846,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.974735926427485</v>
+        <v>14.535328093459386</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>31.715997263361217</v>
+        <v>32.728001173525719</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.440865795797038</v>
-      </c>
-      <c r="G29" s="314">
+        <v>17.10038599230516</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>27.579128055096714</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>28.459131455239756</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5844,15 +5844,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11327,7 +11327,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11338,11 +11338,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11354,11 +11354,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11999,17 +11999,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.92795652060316E-2</v>
+        <v>9.5452822146962893E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.92795652060316E-2</v>
+        <v>9.5452822146962893E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.92795652060316E-2</v>
+        <v>9.5452822146962893E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12050,17 +12050,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.1998700032499193E-2</v>
+        <v>5.5594162612925643E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12120,14 +12120,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>77.351187251602866</v>
+        <v>79.119634559899097</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>77.351187251602866</v>
+        <v>79.119634559899097</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12148,14 +12148,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.193206069280301</v>
+        <v>39.731768652371933</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>39.193206069280301</v>
+        <v>39.731768652371933</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12198,21 +12198,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>53476.5034726878</v>
+        <v>54699.114036062296</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>44.225792361578407</v>
+        <v>45.236907849757038</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>44.225792361578407</v>
+        <v>45.236907849757038</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>59.010850400439395</v>
+        <v>60.359990384696928</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12262,23 +12262,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.9019554938435181</v>
+        <v>9.7614036587953557</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.472888816286492</v>
+        <v>11.484004304465124</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>10.472888816286492</v>
+        <v>11.484004304465124</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.472888816286492</v>
+        <v>11.484004304465124</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>25.25794685514748</v>
+        <v>26.607086839405014</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12317,23 +12317,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>19.04751635901145</v>
+        <v>19.309252528123416</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>22.408842775307587</v>
+        <v>22.716767680145196</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>22.408842775307587</v>
+        <v>22.716767680145196</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>22.408842775307587</v>
+        <v>22.716767680145196</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.900309255045947</v>
+        <v>30.311176071074502</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12372,23 +12372,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>13.974735926427485</v>
+        <v>14.535328093459386</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>16.440865795797038</v>
+        <v>17.10038599230516</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>16.440865795797038</v>
+        <v>17.10038599230516</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>16.440865795797038</v>
+        <v>17.10038599230516</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>27.579128055096714</v>
+        <v>28.459131455239756</v>
       </c>
       <c r="K106" s="75"/>
     </row>
